--- a/excel/multifinance.xlsx
+++ b/excel/multifinance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bayusulistyo/Documents/OttoCash-Mobile/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bayusulistyo/Documents/GitHub/Wolverine/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679085C9-B45A-5246-BD77-9A3EF23F658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD69B746-1260-C34B-A58A-380827CFC21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{99A713CA-5878-A34A-8F94-9CB0BAB3F532}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excel/multifinance.xlsx
+++ b/excel/multifinance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bayusulistyo/Documents/GitHub/Wolverine/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bayusulistyo/Documents/OttoCash-Mobile/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD69B746-1260-C34B-A58A-380827CFC21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679085C9-B45A-5246-BD77-9A3EF23F658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{99A713CA-5878-A34A-8F94-9CB0BAB3F532}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
